--- a/SchedulingData/static4/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_19.xlsx
@@ -466,93 +466,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.46</v>
+        <v>42.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.644</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.6</v>
+        <v>55.46</v>
       </c>
       <c r="E3" t="n">
-        <v>26.04</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127.54</v>
+        <v>61.6</v>
       </c>
       <c r="E4" t="n">
-        <v>22.036</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="D5" t="n">
-        <v>88.62</v>
+        <v>95.2</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88.62</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>163.78</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20.412</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>58.2</v>
+        <v>153.66</v>
       </c>
       <c r="E7" t="n">
-        <v>26.88</v>
+        <v>18.924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.66</v>
       </c>
       <c r="D8" t="n">
-        <v>88.90000000000001</v>
+        <v>193.28</v>
       </c>
       <c r="E8" t="n">
-        <v>24.3</v>
+        <v>16.092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>163.78</v>
+        <v>55.46</v>
       </c>
       <c r="D9" t="n">
-        <v>216.92</v>
+        <v>132.06</v>
       </c>
       <c r="E9" t="n">
-        <v>17.708</v>
+        <v>20.604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58.2</v>
+        <v>61.6</v>
       </c>
       <c r="D10" t="n">
-        <v>137.52</v>
+        <v>147.5</v>
       </c>
       <c r="E10" t="n">
-        <v>24.048</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="11">
@@ -641,89 +641,89 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.54</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>195.8</v>
+        <v>63.56</v>
       </c>
       <c r="E11" t="n">
-        <v>18.34</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>137.52</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>205.14</v>
+        <v>84.7</v>
       </c>
       <c r="E12" t="n">
-        <v>20.396</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.7</v>
       </c>
       <c r="D13" t="n">
-        <v>84.7</v>
+        <v>136.14</v>
       </c>
       <c r="E13" t="n">
-        <v>24.68</v>
+        <v>20.676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.46</v>
+        <v>63.56</v>
       </c>
       <c r="D14" t="n">
-        <v>126.46</v>
+        <v>135.86</v>
       </c>
       <c r="E14" t="n">
-        <v>22.124</v>
+        <v>23.184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>195.8</v>
+        <v>147.5</v>
       </c>
       <c r="D15" t="n">
-        <v>235.32</v>
+        <v>219.5</v>
       </c>
       <c r="E15" t="n">
-        <v>16.008</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>235.32</v>
+        <v>135.86</v>
       </c>
       <c r="D16" t="n">
-        <v>297.42</v>
+        <v>202.56</v>
       </c>
       <c r="E16" t="n">
-        <v>11.928</v>
+        <v>20.104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>84.7</v>
+        <v>193.28</v>
       </c>
       <c r="D17" t="n">
-        <v>147.9</v>
+        <v>242.3</v>
       </c>
       <c r="E17" t="n">
-        <v>21.96</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>216.92</v>
+        <v>219.5</v>
       </c>
       <c r="D18" t="n">
-        <v>269.42</v>
+        <v>272.22</v>
       </c>
       <c r="E18" t="n">
-        <v>14.588</v>
+        <v>14.788</v>
       </c>
     </row>
     <row r="19">
@@ -789,74 +789,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>126.46</v>
+        <v>95.2</v>
       </c>
       <c r="D19" t="n">
-        <v>172.66</v>
+        <v>147.8</v>
       </c>
       <c r="E19" t="n">
-        <v>18.644</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>172.66</v>
+        <v>202.56</v>
       </c>
       <c r="D20" t="n">
-        <v>217.26</v>
+        <v>253.52</v>
       </c>
       <c r="E20" t="n">
-        <v>15.804</v>
+        <v>17.608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>269.42</v>
+        <v>242.3</v>
       </c>
       <c r="D21" t="n">
-        <v>340.36</v>
+        <v>280.64</v>
       </c>
       <c r="E21" t="n">
-        <v>11.624</v>
+        <v>10.616</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>88.90000000000001</v>
+        <v>147.8</v>
       </c>
       <c r="D22" t="n">
-        <v>131.5</v>
+        <v>202.3</v>
       </c>
       <c r="E22" t="n">
-        <v>21.18</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="23">
@@ -865,22 +865,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>340.36</v>
+        <v>136.14</v>
       </c>
       <c r="D23" t="n">
-        <v>383.16</v>
+        <v>187.38</v>
       </c>
       <c r="E23" t="n">
-        <v>7.984</v>
+        <v>17.172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>147.9</v>
+        <v>202.3</v>
       </c>
       <c r="D24" t="n">
-        <v>220.1</v>
+        <v>259.9</v>
       </c>
       <c r="E24" t="n">
-        <v>19.32</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>217.26</v>
+        <v>280.64</v>
       </c>
       <c r="D25" t="n">
-        <v>264.06</v>
+        <v>351.36</v>
       </c>
       <c r="E25" t="n">
-        <v>13.724</v>
+        <v>5.184</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>220.1</v>
+        <v>272.22</v>
       </c>
       <c r="D26" t="n">
-        <v>261.54</v>
+        <v>311.84</v>
       </c>
       <c r="E26" t="n">
-        <v>15.816</v>
+        <v>12.456</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>205.14</v>
+        <v>187.38</v>
       </c>
       <c r="D27" t="n">
-        <v>305.36</v>
+        <v>243.58</v>
       </c>
       <c r="E27" t="n">
-        <v>14.964</v>
+        <v>13.692</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>297.42</v>
+        <v>253.52</v>
       </c>
       <c r="D28" t="n">
-        <v>348.48</v>
+        <v>297.02</v>
       </c>
       <c r="E28" t="n">
-        <v>9.432</v>
+        <v>14.888</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>305.36</v>
+        <v>243.58</v>
       </c>
       <c r="D29" t="n">
-        <v>370.98</v>
+        <v>301.9</v>
       </c>
       <c r="E29" t="n">
-        <v>11.532</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>131.5</v>
+        <v>132.06</v>
       </c>
       <c r="D30" t="n">
-        <v>198.1</v>
+        <v>188.2</v>
       </c>
       <c r="E30" t="n">
-        <v>16.14</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>264.06</v>
+        <v>188.2</v>
       </c>
       <c r="D31" t="n">
-        <v>340.76</v>
+        <v>250.7</v>
       </c>
       <c r="E31" t="n">
-        <v>10.644</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>198.1</v>
+        <v>301.9</v>
       </c>
       <c r="D32" t="n">
-        <v>254.24</v>
+        <v>357.64</v>
       </c>
       <c r="E32" t="n">
-        <v>12.156</v>
+        <v>6.516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>254.24</v>
+        <v>297.02</v>
       </c>
       <c r="D33" t="n">
-        <v>293.26</v>
+        <v>342.74</v>
       </c>
       <c r="E33" t="n">
-        <v>9.384</v>
+        <v>11.456</v>
       </c>
     </row>
   </sheetData>
